--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>971088.5357870469</v>
+        <v>968652.89886334</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>24.6214982250919</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>105.118613342716</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>30.40926493756597</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>407.8895948559962</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>116.6588779734199</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,10 +1111,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>32.85881373760815</v>
       </c>
       <c r="W7" t="n">
-        <v>2.269068682537975</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>270.5139490778472</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,16 +1345,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>263.9299275161839</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329753</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238024</v>
+        <v>22.60777203238032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.975526991141</v>
+        <v>97.97552699114104</v>
       </c>
       <c r="T11" t="n">
-        <v>144.5506594279151</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035209</v>
+        <v>9.753166794035252</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009508</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>79.00824149146341</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>183.3534385644668</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337148</v>
       </c>
       <c r="D14" t="n">
-        <v>304.3915154833937</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.27179222793407</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>123.658654557905</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>166.8182344285488</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206835</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106825144</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>36.43062059490384</v>
+        <v>146.4339626465674</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272888</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>214.0780236353761</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>53.22824985092631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046986</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0109307051784</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>6.077698344597592e-12</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>263.547693822371</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.025155787277</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>149.8225411926544</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,13 +3955,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>213.0214860951269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>133.6059237111945</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1643.543434242328</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.580917301916</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>916.3152186951659</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>530.5269660969217</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073142</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,7 +4346,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4361,19 +4361,19 @@
         <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2759.917179749334</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2407.14852447922</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>2033.68276621814</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>1643.543434242328</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.7237329438971</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>775.7875500159902</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040962</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1415.789367811097</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1126.372197774137</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>1126.372197774137</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>1126.372197774137</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1530.167618932618</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1210.836060705129</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>825.0478081068845</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>818.1023073576811</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2306.906790972551</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2306.906790972551</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>1916.76745899674</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529.0179941377679</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>529.0179941377679</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>1159.448589009555</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>931.4590381115378</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>710.6664589680076</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.9746608886195</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.415704862389</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1157.415704862389</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>936.6231257188592</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408905</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035377</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386829</v>
       </c>
       <c r="K11" t="n">
-        <v>704.515510442033</v>
+        <v>704.5155104420317</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765424</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.2263776871</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856284</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455663</v>
+        <v>3826.58813245566</v>
       </c>
       <c r="T11" t="n">
-        <v>3680.577365356758</v>
+        <v>3622.78602197144</v>
       </c>
       <c r="U11" t="n">
-        <v>3427.086648989367</v>
+        <v>3369.295305604049</v>
       </c>
       <c r="V11" t="n">
-        <v>3096.023761645796</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>3096.023761645796</v>
+        <v>2685.463762990364</v>
       </c>
       <c r="X11" t="n">
-        <v>2722.558003384716</v>
+        <v>2311.998004729284</v>
       </c>
       <c r="Y11" t="n">
-        <v>2332.418671408905</v>
+        <v>1921.858672753472</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376504</v>
+        <v>477.1621322376501</v>
       </c>
       <c r="L12" t="n">
-        <v>477.1621322376504</v>
+        <v>900.4499396649596</v>
       </c>
       <c r="M12" t="n">
-        <v>990.4759064815398</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1531.784213832607</v>
+        <v>1955.072021259915</v>
       </c>
       <c r="O12" t="n">
-        <v>2004.755766698356</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
         <v>2351.938665441777</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>688.2557522378958</v>
+        <v>203.8650582458543</v>
       </c>
       <c r="C13" t="n">
-        <v>688.2557522378958</v>
+        <v>203.8650582458542</v>
       </c>
       <c r="D13" t="n">
-        <v>538.1391128255601</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="E13" t="n">
-        <v>390.2260192431669</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431668</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457704</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.5002252888914</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370156</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1703.096581870694</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1414.005875310983</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1159.321387105096</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>869.9042170681355</v>
+        <v>834.2956531176415</v>
       </c>
       <c r="X13" t="n">
-        <v>869.9042170681355</v>
+        <v>606.3061022196241</v>
       </c>
       <c r="Y13" t="n">
-        <v>869.9042170681355</v>
+        <v>385.513523076094</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555046</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
         <v>1589.996253358682</v>
@@ -5267,61 +5267,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619168</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060315</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85065580060315</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3593983639619</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L15" t="n">
-        <v>915.0917312077133</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1507.110085459841</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>1507.110085459841</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2053.986560460035</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.6226195745506</v>
+        <v>494.0589900220726</v>
       </c>
       <c r="C16" t="n">
-        <v>640.6864366466438</v>
+        <v>494.0589900220725</v>
       </c>
       <c r="D16" t="n">
-        <v>490.569797234308</v>
+        <v>494.0589900220725</v>
       </c>
       <c r="E16" t="n">
-        <v>342.6567036519149</v>
+        <v>406.915765549412</v>
       </c>
       <c r="F16" t="n">
-        <v>342.6567036519149</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
         <v>171.7937461156343</v>
@@ -5452,34 +5452,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T16" t="n">
-        <v>2177.3462391076</v>
+        <v>1957.66745682198</v>
       </c>
       <c r="U16" t="n">
-        <v>1888.270025422327</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V16" t="n">
-        <v>1633.58553721644</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W16" t="n">
-        <v>1344.168367179479</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1116.178816281462</v>
+        <v>896.5000339958424</v>
       </c>
       <c r="Y16" t="n">
-        <v>991.2710844047904</v>
+        <v>675.7074548523123</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5510,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2074.122646505557</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2497.745796000625</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C19" t="n">
-        <v>532.5350811160199</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D19" t="n">
-        <v>382.4184417036843</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036843</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>235.528494205774</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.528494205774</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1876.003517158562</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1621.319028952675</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y19" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5756,22 +5756,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>867.8220324314351</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1465.200520057987</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612594</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327638</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048569</v>
+        <v>559.0424953278189</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925213</v>
+        <v>408.9258559154831</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5908,16 +5908,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.3616186032</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630036</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536382</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257313</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602303</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396416</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.506641481895</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.517090583878</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781.8178837532262</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532262</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6397,7 +6397,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1701.665648661974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1412.248478625013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1184.258927726996</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.4663485834659</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454254</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330897</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.073881198504</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6786,13 +6786,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>719.5738700012</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>550.6376870732931</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
         <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
@@ -6874,7 +6874,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1894.106123115835</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1639.421634909948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1350.004464872987</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1122.01491397497</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>901.2223348314398</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135298</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856229</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.1315533873</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327641</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>612.4182386381636</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7357,25 +7357,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630038</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,37 +7424,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.3544215660704</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1473.212635576801</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1183.79546553984</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>963.0028863963101</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7643,28 +7643,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.3544215660704</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>612.4182386381635</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381635</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2244.961901336507</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2244.961901336507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.0028863963101</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803228</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>57.21342995146278</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726157</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>89.7150774703404</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>35.25247831098775</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729275</v>
       </c>
       <c r="D14" t="n">
-        <v>50.29152613728922</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.1621704186351</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>94.92599879418978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.4467738245925</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>119.3662399606953</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6085800303764</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>110.0033420516653</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823016</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>72.4449747012149</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>198.9093934729017</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.54986409392919</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1735436840659</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462209</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>22.63678056687313</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.49784254931402</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>17.42427990597344</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237485</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>39.11615722870107</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228784</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>47.42036229045016</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894226.390231843</v>
+        <v>894226.3902318429</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>972974.8294058347</v>
+        <v>972974.8294058342</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682046</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682046</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>978335.0230682045</v>
+        <v>978335.0230682048</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682046</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682046</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795043</v>
+        <v>405380.839779504</v>
       </c>
       <c r="F2" t="n">
         <v>441473.874400917</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="H2" t="n">
         <v>443930.6298295035</v>
@@ -26335,19 +26335,19 @@
         <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="L2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295036</v>
       </c>
       <c r="O2" t="n">
         <v>443930.6298295034</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.139218516</v>
+        <v>143114.1392185155</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051379</v>
+        <v>166521.3471051378</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557952</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115344</v>
+        <v>37377.32855115324</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848911</v>
+        <v>43782.40655848887</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224738</v>
+        <v>3023.297977224748</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
+        <v>89744.12305813249</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813251</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89744.12305813245</v>
       </c>
       <c r="E4" t="n">
         <v>10457.96732947516</v>
@@ -26454,7 +26454,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1074849.835921762</v>
+        <v>-1074849.835921763</v>
       </c>
       <c r="C6" t="n">
-        <v>253894.9098058298</v>
+        <v>253894.9098058302</v>
       </c>
       <c r="D6" t="n">
         <v>253894.9098058301</v>
       </c>
       <c r="E6" t="n">
-        <v>165715.011069366</v>
+        <v>165505.0468255214</v>
       </c>
       <c r="F6" t="n">
-        <v>164259.8431163848</v>
+        <v>164213.9381208193</v>
       </c>
       <c r="G6" t="n">
-        <v>321083.7754832363</v>
+        <v>321049.0375577997</v>
       </c>
       <c r="H6" t="n">
-        <v>332251.0117188151</v>
+        <v>332216.2737933796</v>
       </c>
       <c r="I6" t="n">
-        <v>332251.0117188151</v>
+        <v>332216.2737933794</v>
       </c>
       <c r="J6" t="n">
-        <v>114719.8093215376</v>
+        <v>114685.071396102</v>
       </c>
       <c r="K6" t="n">
-        <v>332251.0117188151</v>
+        <v>332216.2737933791</v>
       </c>
       <c r="L6" t="n">
-        <v>332251.0117188151</v>
+        <v>332216.2737933793</v>
       </c>
       <c r="M6" t="n">
-        <v>294873.6831676618</v>
+        <v>294838.9452422261</v>
       </c>
       <c r="N6" t="n">
-        <v>288468.605160326</v>
+        <v>288433.8672348907</v>
       </c>
       <c r="O6" t="n">
-        <v>329227.7137415903</v>
+        <v>329192.9758161546</v>
       </c>
       <c r="P6" t="n">
-        <v>332251.011718815</v>
+        <v>332216.2737933794</v>
       </c>
     </row>
   </sheetData>
@@ -26747,7 +26747,7 @@
         <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26793,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086482</v>
+        <v>981.3883278086477</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012578</v>
+        <v>122.3935669012574</v>
       </c>
       <c r="F3" t="n">
         <v>145.8707812218297</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288602</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063554</v>
+        <v>149.986872406355</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173587</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063556</v>
+        <v>149.9868724063548</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173587</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063554</v>
+        <v>149.986872406355</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173587</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>358.1123434383887</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>222.6336451274189</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>221.728378386262</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>3.032130797457228</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>232.5820907439931</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="W7" t="n">
-        <v>284.253929654053</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>57.2383093922877</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>22.59307082040709</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>3.556976973656589</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29676,7 +29676,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.262368070660159e-12</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-2.120263810372943e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.832471862692741e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29910,7 +29910,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.794593321766541e-12</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -29922,7 +29922,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485649</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.9060854350899</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726057</v>
+        <v>619.8697634726054</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216973</v>
+        <v>769.0032542216969</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857426</v>
+        <v>855.6642913857423</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898388</v>
+        <v>869.5098341898384</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294408</v>
+        <v>821.0534800294405</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615137</v>
+        <v>700.7501494615135</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895588</v>
+        <v>526.2341787895585</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475344</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188517</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596479</v>
+        <v>89.76921320596475</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>566.1178216256413</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784533</v>
+        <v>660.6327957845327</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114714</v>
+        <v>678.1177801147138</v>
       </c>
       <c r="O12" t="n">
-        <v>620.345287743181</v>
+        <v>179.5642660017245</v>
       </c>
       <c r="P12" t="n">
-        <v>484.6642041248567</v>
+        <v>497.8817840205469</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>161.8819085533297</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697585</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
@@ -31911,43 +31911,43 @@
         <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691791</v>
+        <v>65.73539745691788</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263708</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973093</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857061</v>
+        <v>98.28514988570608</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929612</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826904</v>
+        <v>9.339672552826901</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>427.3161054158224</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>369.2285398295293</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.8462560123214</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,28 +32552,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,16 +33029,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>332.1692388321076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9244589488886</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>173.3851399586646</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>531.8166820790245</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>163.1438255932938</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>535.8585467435946</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>359.7678776111903</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040317</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276251</v>
+        <v>399.7799124276249</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584699</v>
+        <v>625.3180581584696</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932476</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077541</v>
+        <v>590.9552686077537</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062442</v>
+        <v>469.517153706244</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151093</v>
+        <v>303.928488915109</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156604</v>
+        <v>90.52095692156593</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>427.5634418457672</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.4987618625144</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313808</v>
+        <v>546.7760680313805</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987365</v>
+        <v>36.96802155728008</v>
       </c>
       <c r="P12" t="n">
-        <v>350.6897967105265</v>
+        <v>363.9073766062166</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>16.2024045893657</v>
+        <v>16.20240458936564</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701841</v>
+        <v>61.18259316701833</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882115</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.650907441083</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998358</v>
+        <v>96.87566713998352</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053121</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>295.9743933324891</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>235.2541324151991</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.86448192629984</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>226.5827468655553</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>31.25110603664623</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>393.2623022991504</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>20.54758114884936</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>393.2623022991502</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>217.633843689172</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
